--- a/DTR.xlsx
+++ b/DTR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\laravel\blaganes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EE96B0-7DBF-4E54-B71A-0D14DE3E6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E60DB0-E333-463B-9B19-B2AA3DC3BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,20 +134,20 @@
     <t>PM 1:00 - 4:30</t>
   </si>
   <si>
-    <t>Regular days:</t>
-  </si>
-  <si>
-    <t>Saturdays:</t>
-  </si>
-  <si>
     <t>BLAGAN ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>Tuesday - Friday:</t>
+  </si>
+  <si>
+    <t>Monday:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -377,62 +383,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -733,46 +739,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -792,46 +798,46 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -851,140 +857,140 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="27"/>
+      <c r="M9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="28"/>
+      <c r="K10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="11" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="27" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="28"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1655,24 +1661,24 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="I43" s="22" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="I43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
@@ -1691,44 +1697,44 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="I45" s="23" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="I45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="I46" s="12" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
@@ -1767,119 +1773,83 @@
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="I50" s="24" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="I50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="I51" s="20" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="I51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="I53" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="A53" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="I53" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="I49:O49"/>
-    <mergeCell ref="I50:O50"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I7:O7"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="I53:O53"/>
     <mergeCell ref="E9:F9"/>
@@ -1896,6 +1866,42 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="I49:O49"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
